--- a/Lyft Pricing Model .xlsx
+++ b/Lyft Pricing Model .xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a85b2b106b20b94a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11AFDFB-5111-4461-8CA8-26CAE7A8715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="14_{D190C38C-420C-46DB-9A4C-AE64C526F10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B261B9-58EF-4D6D-A8FF-DFA19A5B8655}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{355A9676-4958-4F24-88F9-1480245042B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{355A9676-4958-4F24-88F9-1480245042B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Model!$I$3:$I$14</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Model!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Model!$P$31</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Model!$O$34</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
   <si>
     <t>Month</t>
   </si>
@@ -174,6 +174,12 @@
   <si>
     <t>Driver Payout</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
 </sst>
 </file>
 
@@ -196,10 +202,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,35 +258,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -296,6 +305,23 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,7 +405,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="2000" baseline="0"/>
-            <a:t> this model, forecasted over 12 months, the optimal 'Lyft Take' is $2.5 per ride, in order to maximize net revenue</a:t>
+            <a:t> this model, forecasted over 12 months, the optimal 'Lyft Take' is $2.37 per ride, in order to maximize net revenue</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -399,8 +425,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD65FC4-3EDB-4A88-A386-FE991329CC48}" name="Table1" displayName="Table1" ref="A1:O13" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD65FC4-3EDB-4A88-A386-FE991329CC48}" name="Table1" displayName="Table1" ref="A1:P14" totalsRowShown="0" headerRowDxfId="12">
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{10801F85-D11F-4DE8-989C-FC3AFF2266A8}" name="Month">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
@@ -441,8 +467,11 @@
     <tableColumn id="14" xr3:uid="{253763F3-6F71-4165-89EC-D865801110FF}" name="Driver Payout">
       <calculatedColumnFormula>K2*D2*(25-I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DED1B627-4995-4154-958A-C4744E133F95}" name="Net Revenue" dataDxfId="5">
+    <tableColumn id="15" xr3:uid="{DED1B627-4995-4154-958A-C4744E133F95}" name="Net Revenue" dataDxfId="11">
       <calculatedColumnFormula>M2-N2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{49C3D0CE-81F8-41B2-A649-1BF708E0CB5E}" name="Column1" dataDxfId="6">
+      <calculatedColumnFormula>SUM(Table1[Net Revenue])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -450,8 +479,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0C5BC4D-31EF-4B34-8E0A-942B88B960E6}" name="Table2" displayName="Table2" ref="B17:O29" totalsRowShown="0">
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0C5BC4D-31EF-4B34-8E0A-942B88B960E6}" name="Table2" displayName="Table2" ref="B17:P29" totalsRowShown="0">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{32D5863E-7ED3-49F6-AF5E-20D77B1428C4}" name="Driver CAC">
       <calculatedColumnFormula>B17</calculatedColumnFormula>
     </tableColumn>
@@ -491,8 +520,11 @@
     <tableColumn id="13" xr3:uid="{D47F2FB6-788F-4385-AD01-23F23C039159}" name="Driver Earnings">
       <calculatedColumnFormula>K18*D18*(25-I18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{33F4E332-32C3-4053-8047-A0A8FC6734EC}" name="Net Revenue" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{33F4E332-32C3-4053-8047-A0A8FC6734EC}" name="Net Revenue" dataDxfId="10">
       <calculatedColumnFormula>M18-N18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{7368672D-5A03-4C9E-B3F3-9209780C6E27}" name="Column1" dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table2[Net Revenue])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -526,8 +558,8 @@
     <tableColumn id="8" xr3:uid="{C7C21774-F66F-4741-A0FE-A65D0AC4F76C}" name="Lyft's Take per Ride">
       <calculatedColumnFormula>I32</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7EC655C8-A716-4EED-9976-29B2CF8991F3}" name="Match Rate">
-      <calculatedColumnFormula>IF(I33=3,0.93,J32)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{7EC655C8-A716-4EED-9976-29B2CF8991F3}" name="Match Rate" dataDxfId="3">
+      <calculatedColumnFormula>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{C774544B-080A-4C2A-B461-BE3F007C3E32}" name="Number of Drivers">
       <calculatedColumnFormula>K32*(1-C33)+IF(J33&gt;0.6,(J33-0.6)*L32,0)</calculatedColumnFormula>
@@ -541,7 +573,7 @@
     <tableColumn id="13" xr3:uid="{9CA0A7D8-9A93-4059-AAE3-EE0D6D9C2815}" name="Driver Earnings">
       <calculatedColumnFormula>K33*D33*(25-I33)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E86B5D68-A17E-4426-A211-41AA7573CC86}" name="Net Revenue" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{E86B5D68-A17E-4426-A211-41AA7573CC86}" name="Net Revenue" dataDxfId="9">
       <calculatedColumnFormula>M33-N33</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -550,8 +582,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02EAFB8D-597F-48DE-B825-34F30BA0A24E}" name="Table4" displayName="Table4" ref="B47:O59" totalsRowShown="0">
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02EAFB8D-597F-48DE-B825-34F30BA0A24E}" name="Table4" displayName="Table4" ref="B47:P59" totalsRowShown="0">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{656CB06B-0197-4AD5-B030-ACA5C321D343}" name="Driver CAC">
       <calculatedColumnFormula>B47</calculatedColumnFormula>
     </tableColumn>
@@ -576,8 +608,8 @@
     <tableColumn id="8" xr3:uid="{B3697E29-E948-4246-B8A6-AF5EBE9C4117}" name="Lyft's Take per Ride">
       <calculatedColumnFormula>I47</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63520A8F-87D8-41CE-809D-858D2814FB59}" name="Match Rate">
-      <calculatedColumnFormula>IF(I48=3,0.93,J47)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{63520A8F-87D8-41CE-809D-858D2814FB59}" name="Match Rate" dataDxfId="5">
+      <calculatedColumnFormula>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{EB8558B3-207B-49D3-A6FA-FE19F718A25F}" name="Number of Drivers">
       <calculatedColumnFormula>K47*(1-C48)+IF(J48&gt;0.6,(J48-0.6)*L47,0)</calculatedColumnFormula>
@@ -591,8 +623,11 @@
     <tableColumn id="13" xr3:uid="{5FDBF76E-78CA-4C8E-9A57-464618110505}" name="Driver Earnings">
       <calculatedColumnFormula>K48*D48*(25-I48)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{983FFBC4-FA9D-4405-8E10-04C1826A43D6}" name="Net Revenue" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{983FFBC4-FA9D-4405-8E10-04C1826A43D6}" name="Net Revenue" dataDxfId="8">
       <calculatedColumnFormula>M48-N48</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{BF9E0F64-CD16-434D-8B10-69C5FE7C4555}" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Table4[Net Revenue])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -600,8 +635,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE3F3F89-6AC3-480A-AB67-A83F9DC220BE}" name="Table5" displayName="Table5" ref="B63:O75" totalsRowShown="0">
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE3F3F89-6AC3-480A-AB67-A83F9DC220BE}" name="Table5" displayName="Table5" ref="B63:P75" totalsRowShown="0">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{994CC406-3E10-4422-B433-00F5B0270C18}" name="Driver CAC">
       <calculatedColumnFormula>B63</calculatedColumnFormula>
     </tableColumn>
@@ -626,8 +661,8 @@
     <tableColumn id="8" xr3:uid="{D82F1BA3-60E4-4724-8DB5-58FD7200E578}" name="Lyft's Take per Ride">
       <calculatedColumnFormula>I63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BDC8D65C-CF1C-43A1-B6B0-B4C7844F1F50}" name="Match Rate">
-      <calculatedColumnFormula>IF(I64=3,0.93,J63)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{BDC8D65C-CF1C-43A1-B6B0-B4C7844F1F50}" name="Match Rate" dataDxfId="4">
+      <calculatedColumnFormula>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{92CE86B4-5B2E-4DC1-B35C-C8E83F83FEF1}" name="Number of Drivers">
       <calculatedColumnFormula>K63*(1-C64)+IF(J64&gt;0.6,(J64-0.6)*L63,0)</calculatedColumnFormula>
@@ -641,8 +676,11 @@
     <tableColumn id="13" xr3:uid="{9FA9F933-5A30-4F6B-8603-73DABC7E0568}" name="Driver Earnings">
       <calculatedColumnFormula>K64*D64*(25-I64)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1DE1F4CB-6835-4927-A10A-7A6E8A574008}" name="Net Revenue" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{1DE1F4CB-6835-4927-A10A-7A6E8A574008}" name="Net Revenue" dataDxfId="7">
       <calculatedColumnFormula>M64-N64</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{4EA94F8E-84FD-421C-8F28-AD6CE8433B75}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table5[Net Revenue])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -968,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB7598B-E8EB-478F-8D18-15177162A1C0}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,62 +1022,65 @@
     <col min="8" max="8" width="29.21875" customWidth="1"/>
     <col min="9" max="9" width="19.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="18.109375" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1088,8 +1129,11 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A13" si="0">A2+1</f>
         <v>2</v>
@@ -1149,8 +1193,12 @@
         <f>M3-N3</f>
         <v>176824.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1210,8 +1258,12 @@
         <f t="shared" ref="O4:O13" si="14">M4-N4</f>
         <v>167872.02984999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1271,8 +1323,12 @@
         <f t="shared" si="14"/>
         <v>159369.61865896999</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1332,8 +1388,12 @@
         <f t="shared" si="14"/>
         <v>151294.48245952238</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1393,8 +1453,12 @@
         <f t="shared" si="14"/>
         <v>143625.21484432384</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1454,8 +1518,12 @@
         <f t="shared" si="14"/>
         <v>136341.48057103119</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1515,8 +1583,12 @@
         <f t="shared" si="14"/>
         <v>129423.96198731854</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1576,8 +1648,12 @@
         <f t="shared" si="14"/>
         <v>122854.30813498367</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1637,8 +1713,12 @@
         <f t="shared" si="14"/>
         <v>116615.08639917435</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1698,8 +1778,12 @@
         <f t="shared" si="14"/>
         <v>110689.73657547089</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1759,6 +1843,75 @@
         <f t="shared" si="14"/>
         <v>105062.52723392674</v>
       </c>
+      <c r="P13" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>B13</f>
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <f>C13</f>
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <f>D13</f>
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <f>E13</f>
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <f>F13</f>
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <f>G13</f>
+        <v>0.33</v>
+      </c>
+      <c r="H14">
+        <f>H13</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <f>IF(I14=3,0.93,J13)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <f>K13*(1-C14)+IF(J14&gt;0.6,(J14-0.6)*L13,0)</f>
+        <v>-54.036008766263663</v>
+      </c>
+      <c r="L14">
+        <f>L13*(1-(F14*(IF(J14&gt;=1,1,0)+G14*(IF(J14&lt;1,J14,0)))))</f>
+        <v>-117.99609562753193</v>
+      </c>
+      <c r="M14">
+        <f>L14*H14*25</f>
+        <v>-2949.9023906882981</v>
+      </c>
+      <c r="N14">
+        <f>K14*D14*(25-I14)</f>
+        <v>-102668.41665590096</v>
+      </c>
+      <c r="O14" s="1">
+        <f>M14-N14</f>
+        <v>99718.514265212667</v>
+      </c>
+      <c r="P14" s="1">
+        <f>SUM(Table1[Net Revenue])</f>
+        <v>1619691.2109799345</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1806,6 +1959,9 @@
       <c r="O17" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -1855,6 +2011,10 @@
       </c>
       <c r="O18" s="1">
         <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1917,6 +2077,10 @@
         <f>M19-N19</f>
         <v>314265.08750000002</v>
       </c>
+      <c r="P19" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1971,12 +2135,16 @@
         <v>-3523.3570353750006</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N29" si="27">K20*D20*(25-I20)</f>
+        <f>K20*D20*(25-I20)</f>
         <v>-407562.859</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" ref="O20:O28" si="28">M20-N20</f>
+        <f t="shared" ref="O20:O28" si="27">M20-N20</f>
         <v>404039.50196462497</v>
+      </c>
+      <c r="P20" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2020,7 +2188,7 @@
         <v>0.93</v>
       </c>
       <c r="K21">
-        <f t="shared" si="24"/>
+        <f>K20*(1-C21)+IF(J21&gt;0.6,(J21-0.6)*L20,0)</f>
         <v>-222.50136561695001</v>
       </c>
       <c r="L21">
@@ -2032,12 +2200,16 @@
         <v>-3415.2252079593418</v>
       </c>
       <c r="N21">
+        <f t="shared" ref="N21:N29" si="28">K21*D21*(25-I21)</f>
+        <v>-489503.00435729005</v>
+      </c>
+      <c r="O21" s="1">
         <f t="shared" si="27"/>
-        <v>-489503.00435729005</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="28"/>
         <v>486087.77914933069</v>
+      </c>
+      <c r="P21" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2093,12 +2265,16 @@
         <v>-3310.411946327069</v>
       </c>
       <c r="N22">
+        <f t="shared" si="28"/>
+        <v>-564205.99417856475</v>
+      </c>
+      <c r="O22" s="1">
         <f t="shared" si="27"/>
-        <v>-564205.99417856475</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="28"/>
         <v>560895.58223223768</v>
+      </c>
+      <c r="P22" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2154,12 +2330,16 @@
         <v>-3208.8154036942919</v>
       </c>
       <c r="N23">
+        <f t="shared" si="28"/>
+        <v>-632130.0573909746</v>
+      </c>
+      <c r="O23" s="1">
         <f t="shared" si="27"/>
-        <v>-632130.0573909746</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="28"/>
         <v>628921.24198728031</v>
+      </c>
+      <c r="P23" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2215,12 +2395,16 @@
         <v>-3110.3368589549136</v>
       </c>
       <c r="N24">
+        <f t="shared" si="28"/>
+        <v>-693707.55384470802</v>
+      </c>
+      <c r="O24" s="1">
         <f t="shared" si="27"/>
-        <v>-693707.55384470802</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="28"/>
         <v>690597.21698575316</v>
+      </c>
+      <c r="P24" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2276,12 +2460,16 @@
         <v>-3014.8806207535877</v>
       </c>
       <c r="N25">
+        <f t="shared" si="28"/>
+        <v>-749346.3585365233</v>
+      </c>
+      <c r="O25" s="1">
         <f t="shared" si="27"/>
-        <v>-749346.3585365233</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="28"/>
         <v>746331.47791576968</v>
+      </c>
+      <c r="P25" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2337,12 +2525,16 @@
         <v>-2922.3539345026602</v>
       </c>
       <c r="N26">
+        <f t="shared" si="28"/>
+        <v>-799431.17383638141</v>
+      </c>
+      <c r="O26" s="1">
         <f t="shared" si="27"/>
-        <v>-799431.17383638141</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="28"/>
         <v>796508.81990187871</v>
+      </c>
+      <c r="P26" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2398,12 +2590,16 @@
         <v>-2832.6668922527733</v>
       </c>
       <c r="N27">
+        <f t="shared" si="28"/>
+        <v>-844324.77340251941</v>
+      </c>
+      <c r="O27" s="1">
         <f t="shared" si="27"/>
-        <v>-844324.77340251941</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="28"/>
         <v>841492.10651026666</v>
+      </c>
+      <c r="P27" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2459,12 +2655,16 @@
         <v>-2745.7323453295357</v>
       </c>
       <c r="N28">
+        <f t="shared" si="28"/>
+        <v>-884369.1812834139</v>
+      </c>
+      <c r="O28" s="1">
         <f t="shared" si="27"/>
-        <v>-884369.1812834139</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="28"/>
         <v>881623.44893808442</v>
+      </c>
+      <c r="P28" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2520,13 +2720,17 @@
         <v>-2661.4658196513724</v>
       </c>
       <c r="N29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-919886.78952761309</v>
       </c>
       <c r="O29" s="1">
         <f>M29-N29</f>
         <v>917225.32370796171</v>
       </c>
+      <c r="P29" s="1">
+        <f>SUM(Table2[Net Revenue])</f>
+        <v>7267987.5867931889</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P30" s="1"/>
@@ -2578,7 +2782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -2608,7 +2812,8 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <v>0.6</v>
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K33">
         <f>-B33/C33/D33</f>
@@ -2628,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A44" si="29">A33+1</f>
         <v>2</v>
@@ -2665,7 +2870,7 @@
         <v>4.5</v>
       </c>
       <c r="J34">
-        <f>0.93+((4.5-3)*(-0.33/3))</f>
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
         <v>0.76500000000000001</v>
       </c>
       <c r="K34">
@@ -2689,7 +2894,7 @@
         <v>241832.16875000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="29"/>
         <v>3</v>
@@ -2727,31 +2932,31 @@
         <v>4.5</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J44" si="38">IF(I35=3,0.93,J34)</f>
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
         <v>0.76500000000000001</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K44" si="39">K34*(1-C35)+IF(J35&gt;0.6,(J35-0.6)*L34,0)</f>
+        <f t="shared" ref="K35:K44" si="38">K34*(1-C35)+IF(J35&gt;0.6,(J35-0.6)*L34,0)</f>
         <v>-137.88768625</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:L44" si="40">L34*(1-(F35*(IF(J35&gt;=1,1,0)+G35*(IF(J35&lt;1,J35,0)))))</f>
+        <f t="shared" ref="L35:L44" si="39">L34*(1-(F35*(IF(J35&gt;=1,1,0)+G35*(IF(J35&lt;1,J35,0)))))</f>
         <v>-142.52209650375002</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M44" si="41">L35*H35*25</f>
+        <f t="shared" ref="M35:M44" si="40">L35*H35*25</f>
         <v>-3563.0524125937504</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N44" si="42">K35*D35*(25-I35)</f>
+        <f t="shared" ref="N35:N44" si="41">K35*D35*(25-I35)</f>
         <v>-282669.75681250001</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ref="O35:O44" si="43">M35-N35</f>
+        <f t="shared" ref="O35:O44" si="42">M35-N35</f>
         <v>279106.70439990627</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="29"/>
         <v>4</v>
@@ -2789,31 +2994,31 @@
         <v>4.5</v>
       </c>
       <c r="J36">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K36">
+        <v>-154.50944786061876</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="39"/>
-        <v>-154.50944786061876</v>
-      </c>
-      <c r="L36">
+        <v>-138.92412617751285</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="40"/>
-        <v>-138.92412617751285</v>
-      </c>
-      <c r="M36">
+        <v>-3473.1031544378211</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="41"/>
-        <v>-3473.1031544378211</v>
-      </c>
-      <c r="N36">
+        <v>-316744.36811426847</v>
+      </c>
+      <c r="O36" s="1">
         <f t="shared" si="42"/>
-        <v>-316744.36811426847</v>
-      </c>
-      <c r="O36" s="1">
-        <f t="shared" si="43"/>
         <v>313271.26495983062</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="29"/>
         <v>5</v>
@@ -2851,31 +3056,31 @@
         <v>4.5</v>
       </c>
       <c r="J37">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K37">
+        <v>-169.70645628687745</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="39"/>
-        <v>-169.70645628687745</v>
-      </c>
-      <c r="L37">
+        <v>-135.41698661216154</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="40"/>
-        <v>-135.41698661216154</v>
-      </c>
-      <c r="M37">
+        <v>-3385.4246653040386</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="41"/>
-        <v>-3385.4246653040386</v>
-      </c>
-      <c r="N37">
+        <v>-347898.23538809875</v>
+      </c>
+      <c r="O37" s="1">
         <f t="shared" si="42"/>
-        <v>-347898.23538809875</v>
-      </c>
-      <c r="O37" s="1">
-        <f t="shared" si="43"/>
         <v>344512.81072279473</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="29"/>
         <v>6</v>
@@ -2913,31 +3118,31 @@
         <v>4.5</v>
       </c>
       <c r="J38">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K38">
+        <v>-183.56493626354023</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="39"/>
-        <v>-183.56493626354023</v>
-      </c>
-      <c r="L38">
+        <v>-131.99838478513752</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="40"/>
-        <v>-131.99838478513752</v>
-      </c>
-      <c r="M38">
+        <v>-3299.9596196284378</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="41"/>
-        <v>-3299.9596196284378</v>
-      </c>
-      <c r="N38">
+        <v>-376308.11934025743</v>
+      </c>
+      <c r="O38" s="1">
         <f t="shared" si="42"/>
-        <v>-376308.11934025743</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="43"/>
         <v>373008.15972062899</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="29"/>
         <v>7</v>
@@ -2975,31 +3180,31 @@
         <v>4.5</v>
       </c>
       <c r="J39">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K39">
+        <v>-196.16642293991089</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="39"/>
-        <v>-196.16642293991089</v>
-      </c>
-      <c r="L39">
+        <v>-128.66608556123671</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="40"/>
-        <v>-128.66608556123671</v>
-      </c>
-      <c r="M39">
+        <v>-3216.6521390309176</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="41"/>
-        <v>-3216.6521390309176</v>
-      </c>
-      <c r="N39">
+        <v>-402141.16702681733</v>
+      </c>
+      <c r="O39" s="1">
         <f t="shared" si="42"/>
-        <v>-402141.16702681733</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="43"/>
         <v>398924.51488778641</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="29"/>
         <v>8</v>
@@ -3037,31 +3242,31 @@
         <v>4.5</v>
       </c>
       <c r="J40">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K40">
+        <v>-207.5880059105194</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="39"/>
-        <v>-207.5880059105194</v>
-      </c>
-      <c r="L40">
+        <v>-125.4179102312433</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="40"/>
-        <v>-125.4179102312433</v>
-      </c>
-      <c r="M40">
+        <v>-3135.4477557810824</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="41"/>
-        <v>-3135.4477557810824</v>
-      </c>
-      <c r="N40">
+        <v>-425555.41211656475</v>
+      </c>
+      <c r="O40" s="1">
         <f t="shared" si="42"/>
-        <v>-425555.41211656475</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="43"/>
         <v>422419.96436078369</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="29"/>
         <v>9</v>
@@ -3099,31 +3304,31 @@
         <v>4.5</v>
       </c>
       <c r="J41">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K41">
+        <v>-217.90256080314856</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="39"/>
-        <v>-217.90256080314856</v>
-      </c>
-      <c r="L41">
+        <v>-122.25173508745557</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="40"/>
-        <v>-122.25173508745557</v>
-      </c>
-      <c r="M41">
+        <v>-3056.2933771863891</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="41"/>
-        <v>-3056.2933771863891</v>
-      </c>
-      <c r="N41">
+        <v>-446700.24964645453</v>
+      </c>
+      <c r="O41" s="1">
         <f t="shared" si="42"/>
-        <v>-446700.24964645453</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="43"/>
         <v>443643.95626926812</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="29"/>
         <v>10</v>
@@ -3161,31 +3366,31 @@
         <v>4.5</v>
       </c>
       <c r="J42">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K42">
+        <v>-227.17896905242131</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="39"/>
-        <v>-227.17896905242131</v>
-      </c>
-      <c r="L42">
+        <v>-119.16549003517277</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="40"/>
-        <v>-119.16549003517277</v>
-      </c>
-      <c r="M42">
+        <v>-2979.1372508793193</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="41"/>
-        <v>-2979.1372508793193</v>
-      </c>
-      <c r="N42">
+        <v>-465716.88655746367</v>
+      </c>
+      <c r="O42" s="1">
         <f t="shared" si="42"/>
-        <v>-465716.88655746367</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="43"/>
         <v>462737.74930658436</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="29"/>
         <v>11</v>
@@ -3223,31 +3428,31 @@
         <v>4.5</v>
       </c>
       <c r="J43">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K43">
+        <v>-235.48232645560375</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="39"/>
-        <v>-235.48232645560375</v>
-      </c>
-      <c r="L43">
+        <v>-116.15715723923483</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="40"/>
-        <v>-116.15715723923483</v>
-      </c>
-      <c r="M43">
+        <v>-2903.928930980871</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="41"/>
-        <v>-2903.928930980871</v>
-      </c>
-      <c r="N43">
+        <v>-482738.76923398772</v>
+      </c>
+      <c r="O43" s="1">
         <f t="shared" si="42"/>
-        <v>-482738.76923398772</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="43"/>
         <v>479834.84030300687</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="29"/>
         <v>12</v>
@@ -3285,31 +3490,31 @@
         <v>4.5</v>
       </c>
       <c r="J44">
+        <f>0.93+((Table3[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="38"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="K44">
+        <v>-242.87414107729731</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="39"/>
-        <v>-242.87414107729731</v>
-      </c>
-      <c r="L44">
+        <v>-113.22476980473036</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="40"/>
-        <v>-113.22476980473036</v>
-      </c>
-      <c r="M44">
+        <v>-2830.6192451182587</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="41"/>
-        <v>-2830.6192451182587</v>
-      </c>
-      <c r="N44">
+        <v>-497891.9892084595</v>
+      </c>
+      <c r="O44" s="1">
         <f t="shared" si="42"/>
-        <v>-497891.9892084595</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="43"/>
         <v>495061.36996334122</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -3355,8 +3560,11 @@
       <c r="O47" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -3386,7 +3594,8 @@
         <v>6</v>
       </c>
       <c r="J48">
-        <v>0.6</v>
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K48">
         <f>-B48/C48/D48</f>
@@ -3405,10 +3614,14 @@
       <c r="O48" s="1">
         <v>0</v>
       </c>
+      <c r="P48" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <f t="shared" ref="A49:A59" si="44">A48+1</f>
+        <f t="shared" ref="A49:A59" si="43">A48+1</f>
         <v>2</v>
       </c>
       <c r="B49">
@@ -3420,30 +3633,30 @@
         <v>0.05</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D59" si="45">D48</f>
+        <f t="shared" ref="D49:D59" si="44">D48</f>
         <v>100</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E59" si="46">E48</f>
+        <f t="shared" ref="E49:E59" si="45">E48</f>
         <v>15</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F59" si="47">F48</f>
+        <f t="shared" ref="F49:F59" si="46">F48</f>
         <v>0.1</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49:G59" si="48">G48</f>
+        <f t="shared" ref="G49:G59" si="47">G48</f>
         <v>0.33</v>
       </c>
       <c r="H49">
-        <f t="shared" ref="H49:H59" si="49">H48</f>
+        <f t="shared" ref="H49:H59" si="48">H48</f>
         <v>1</v>
       </c>
       <c r="I49">
         <v>2.5</v>
       </c>
       <c r="J49">
-        <f>0.93+((2.5-3)*(-0.33/3))</f>
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
         <v>0.9850000000000001</v>
       </c>
       <c r="K49">
@@ -3466,626 +3679,670 @@
         <f>M49-N49</f>
         <v>340059.39375000005</v>
       </c>
+      <c r="P49" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:B59" si="49">B49</f>
+        <v>500</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:C59" si="50">C49</f>
+        <v>0.05</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="44"/>
-        <v>3</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ref="B50:B59" si="50">B49</f>
-        <v>500</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:C59" si="51">C49</f>
-        <v>0.05</v>
-      </c>
-      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E50">
+        <v>15</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F50">
+        <v>0.1</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G50">
+        <v>0.33</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I50">
-        <f t="shared" ref="I50:I59" si="52">I49</f>
+        <f>I49</f>
         <v>2.5</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50:J59" si="53">IF(I50=3,0.93,J49)</f>
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
         <v>0.9850000000000001</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50:K59" si="54">K49*(1-C50)+IF(J50&gt;0.6,(J50-0.6)*L49,0)</f>
+        <f t="shared" ref="K50:K59" si="51">K49*(1-C50)+IF(J50&gt;0.6,(J50-0.6)*L49,0)</f>
         <v>-200.98533625000002</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50:L59" si="55">L49*(1-(F50*(IF(J50&gt;=1,1,0)+G50*(IF(J50&lt;1,J50,0)))))</f>
+        <f t="shared" ref="L50:L59" si="52">L49*(1-(F50*(IF(J50&gt;=1,1,0)+G50*(IF(J50&lt;1,J50,0)))))</f>
         <v>-140.40698625374998</v>
       </c>
       <c r="M50">
-        <f t="shared" ref="M50:M59" si="56">L50*H50*25</f>
+        <f t="shared" ref="M50:M59" si="53">L50*H50*25</f>
         <v>-3510.1746563437496</v>
       </c>
       <c r="N50">
-        <f t="shared" ref="N50:N59" si="57">K50*D50*(25-I50)</f>
+        <f>K50*D50*(25-I50)</f>
         <v>-452217.00656250003</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" ref="O50:O56" si="58">M50-N50</f>
+        <f t="shared" ref="O50:O56" si="54">M50-N50</f>
         <v>448706.83190615627</v>
+      </c>
+      <c r="P50" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f>I50</f>
+        <v>2.5</v>
+      </c>
+      <c r="J51">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I51">
+        <v>-244.99275914519376</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J51">
+        <v>-135.84305716557182</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K51">
+        <v>-3396.0764291392957</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51:N59" si="55">K51*D51*(25-I51)</f>
+        <v>-551233.70807668602</v>
+      </c>
+      <c r="O51" s="1">
         <f t="shared" si="54"/>
-        <v>-244.99275914519376</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="55"/>
-        <v>-135.84305716557182</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="56"/>
-        <v>-3396.0764291392957</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="57"/>
-        <v>-551233.70807668602</v>
-      </c>
-      <c r="O51" s="1">
-        <f t="shared" si="58"/>
         <v>547837.63164754678</v>
+      </c>
+      <c r="P51" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:I59" si="56">I51</f>
+        <v>2.5</v>
+      </c>
+      <c r="J52">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I52">
+        <v>-285.04269819667923</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J52">
+        <v>-131.4274785924049</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K52">
+        <v>-3285.6869648101224</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="55"/>
+        <v>-641346.07094252831</v>
+      </c>
+      <c r="O52" s="1">
         <f t="shared" si="54"/>
-        <v>-285.04269819667923</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="55"/>
-        <v>-131.4274785924049</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="56"/>
-        <v>-3285.6869648101224</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="57"/>
-        <v>-641346.07094252831</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="58"/>
         <v>638060.38397771819</v>
+      </c>
+      <c r="P52" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="56"/>
+        <v>2.5</v>
+      </c>
+      <c r="J53">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I53">
+        <v>-321.39014254492116</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J53">
+        <v>-127.15542840075878</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K53">
+        <v>-3178.8857100189693</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="55"/>
+        <v>-723127.82072607253</v>
+      </c>
+      <c r="O53" s="1">
         <f t="shared" si="54"/>
-        <v>-321.39014254492116</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="55"/>
-        <v>-127.15542840075878</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="56"/>
-        <v>-3178.8857100189693</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="57"/>
-        <v>-723127.82072607253</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="58"/>
         <v>719948.93501605361</v>
+      </c>
+      <c r="P53" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="44"/>
-        <v>7</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="56"/>
+        <v>2.5</v>
+      </c>
+      <c r="J54">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I54">
+        <v>-354.2754753519672</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J54">
+        <v>-123.02224120059212</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K54">
+        <v>-3075.5560300148031</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="55"/>
+        <v>-797119.81954192615</v>
+      </c>
+      <c r="O54" s="1">
         <f t="shared" si="54"/>
-        <v>-354.2754753519672</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="55"/>
-        <v>-123.02224120059212</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="56"/>
-        <v>-3075.5560300148031</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="57"/>
-        <v>-797119.81954192615</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="58"/>
         <v>794044.26351191138</v>
+      </c>
+      <c r="P54" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="44"/>
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="56"/>
+        <v>2.5</v>
+      </c>
+      <c r="J55">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I55">
+        <v>-383.92526444659683</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J55">
+        <v>-119.02340325036687</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K55">
+        <v>-2975.5850812591716</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="55"/>
+        <v>-863831.84500484285</v>
+      </c>
+      <c r="O55" s="1">
         <f t="shared" si="54"/>
-        <v>-383.92526444659683</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="55"/>
-        <v>-119.02340325036687</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="56"/>
-        <v>-2975.5850812591716</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="57"/>
-        <v>-863831.84500484285</v>
-      </c>
-      <c r="O55" s="1">
-        <f t="shared" si="58"/>
         <v>860856.25992358371</v>
+      </c>
+      <c r="P55" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="44"/>
-        <v>9</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="56"/>
+        <v>2.5</v>
+      </c>
+      <c r="J56">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I56">
+        <v>-410.55301147565825</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J56">
+        <v>-115.15454752771369</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K56">
+        <v>-2878.8636881928423</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="55"/>
+        <v>-923744.27582023107</v>
+      </c>
+      <c r="O56" s="1">
         <f t="shared" si="54"/>
-        <v>-410.55301147565825</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="55"/>
-        <v>-115.15454752771369</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="56"/>
-        <v>-2878.8636881928423</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="57"/>
-        <v>-923744.27582023107</v>
-      </c>
-      <c r="O56" s="1">
-        <f t="shared" si="58"/>
         <v>920865.41213203827</v>
+      </c>
+      <c r="P56" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="56"/>
+        <v>2.5</v>
+      </c>
+      <c r="J57">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I57">
+        <v>-434.35986170004514</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J57">
+        <v>-111.41144896032536</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="54"/>
-        <v>-434.35986170004514</v>
-      </c>
-      <c r="L57">
+        <v>-2785.286224008134</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="55"/>
-        <v>-111.41144896032536</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="56"/>
-        <v>-2785.286224008134</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="57"/>
         <v>-977309.68882510159</v>
       </c>
       <c r="O57" s="1">
         <f>M57-N57</f>
         <v>974524.4026010934</v>
       </c>
+      <c r="P57" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="44"/>
-        <v>11</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="56"/>
+        <v>2.5</v>
+      </c>
+      <c r="J58">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I58">
+        <v>-455.53527646476817</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J58">
+        <v>-107.79001981186998</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="54"/>
-        <v>-455.53527646476817</v>
-      </c>
-      <c r="L58">
+        <v>-2694.7504952967497</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="55"/>
-        <v>-107.79001981186998</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="56"/>
-        <v>-2694.7504952967497</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="57"/>
         <v>-1024954.3720457284</v>
       </c>
       <c r="O58" s="1">
         <f>M58-N58</f>
         <v>1022259.6215504316</v>
       </c>
+      <c r="P58" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="50"/>
+        <v>0.05</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="44"/>
-        <v>12</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="47"/>
+        <v>0.33</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="56"/>
+        <v>2.5</v>
+      </c>
+      <c r="J59">
+        <f>0.93+((Table4[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="51"/>
-        <v>0.05</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="45"/>
-        <v>100</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="46"/>
-        <v>15</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="47"/>
-        <v>0.1</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="48"/>
-        <v>0.33</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I59">
+        <v>-474.25767026909972</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="52"/>
-        <v>2.5</v>
-      </c>
-      <c r="J59">
+        <v>-104.28630521788514</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="53"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="54"/>
-        <v>-474.25767026909972</v>
-      </c>
-      <c r="L59">
+        <v>-2607.1576304471287</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="55"/>
-        <v>-104.28630521788514</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="56"/>
-        <v>-2607.1576304471287</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="57"/>
         <v>-1067079.7581054743</v>
       </c>
       <c r="O59" s="1">
         <f>M59-N59</f>
         <v>1064472.6004750272</v>
       </c>
+      <c r="P59" s="1">
+        <f>SUM(Table4[Net Revenue])</f>
+        <v>8331635.73649156</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P60" s="1"/>
@@ -4136,6 +4393,9 @@
       <c r="O63" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="P63" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
@@ -4167,7 +4427,8 @@
         <v>6</v>
       </c>
       <c r="J64">
-        <v>0.6</v>
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K64">
         <f>-B64/C64/D64</f>
@@ -4186,10 +4447,14 @@
       <c r="O64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <f t="shared" ref="A65:A75" si="59">A64+1</f>
+        <f t="shared" ref="A65:A75" si="57">A64+1</f>
         <v>2</v>
       </c>
       <c r="B65">
@@ -4201,681 +4466,726 @@
         <v>0.05</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:D75" si="60">D64</f>
+        <f t="shared" ref="D65:D75" si="58">D64</f>
         <v>100</v>
       </c>
       <c r="E65">
-        <f t="shared" ref="E65:E75" si="61">E64</f>
+        <f t="shared" ref="E65:E75" si="59">E64</f>
         <v>15</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F75" si="62">F64</f>
+        <f t="shared" ref="F65:F75" si="60">F64</f>
         <v>0.1</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65:G75" si="63">G64</f>
+        <f t="shared" ref="G65:G75" si="61">G64</f>
         <v>0.33</v>
       </c>
       <c r="H65">
-        <f t="shared" ref="H65:H75" si="64">H64</f>
+        <f t="shared" ref="H65:H75" si="62">H64</f>
         <v>1</v>
       </c>
       <c r="I65">
-        <v>3.5</v>
+        <v>2.37</v>
       </c>
       <c r="J65">
-        <f>0.93+((3.5-3)*(-0.33/3))</f>
-        <v>0.875</v>
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
       </c>
       <c r="K65">
         <f>K64*(1-C65)+IF(J65&gt;0.6,(J65-0.6)*L64,0)</f>
-        <v>-136.25</v>
+        <v>-154.89500000000001</v>
       </c>
       <c r="L65">
         <f>L64*(1-(F65*(IF(J65&gt;=1,1,0)+G65*(IF(J65&lt;1,J65,0)))))</f>
-        <v>-145.66874999999999</v>
+        <v>-145.05346500000002</v>
       </c>
       <c r="M65">
         <f>L65*H65*25</f>
-        <v>-3641.7187499999995</v>
+        <v>-3626.3366250000004</v>
       </c>
       <c r="N65">
         <f>K65*D65*(25-I65)</f>
-        <v>-292937.5</v>
+        <v>-350527.38500000001</v>
       </c>
       <c r="O65" s="1">
         <f>M65-N65</f>
-        <v>289295.78125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+        <v>346901.04837500001</v>
+      </c>
+      <c r="P65" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B75" si="63">B65</f>
+        <v>500</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C75" si="64">C65</f>
+        <v>0.05</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="59"/>
-        <v>3</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B75" si="65">B65</f>
-        <v>500</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C75" si="66">C65</f>
-        <v>0.05</v>
-      </c>
-      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E66">
+        <v>0.1</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F66">
+        <v>0.33</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f>I65</f>
+        <v>2.37</v>
+      </c>
+      <c r="J66">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66:K75" si="65">K65*(1-C66)+IF(J66&gt;0.6,(J66-0.6)*L65,0)</f>
+        <v>-205.07009857450004</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L75" si="66">L65*(1-(F66*(IF(J66&gt;=1,1,0)+G66*(IF(J66&lt;1,J66,0)))))</f>
+        <v>-140.27005139004152</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66:M75" si="67">L66*H66*25</f>
+        <v>-3506.7512847510379</v>
+      </c>
+      <c r="N66">
+        <f>K66*D66*(25-I66)</f>
+        <v>-464073.63307409355</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" ref="O66:O72" si="68">M66-N66</f>
+        <v>460566.8817893425</v>
+      </c>
+      <c r="P66" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="B67">
         <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H66">
+        <v>500</v>
+      </c>
+      <c r="C67">
         <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <f t="shared" ref="I66:I75" si="67">I65</f>
-        <v>3.5</v>
-      </c>
-      <c r="J66">
-        <f t="shared" ref="J66:J75" si="68">IF(I66=3,0.93,J65)</f>
-        <v>0.875</v>
-      </c>
-      <c r="K66">
-        <f t="shared" ref="K66:K75" si="69">K65*(1-C66)+IF(J66&gt;0.6,(J66-0.6)*L65,0)</f>
-        <v>-169.49640625000001</v>
-      </c>
-      <c r="L66">
-        <f t="shared" ref="L66:L75" si="70">L65*(1-(F66*(IF(J66&gt;=1,1,0)+G66*(IF(J66&lt;1,J66,0)))))</f>
-        <v>-141.46256484374999</v>
-      </c>
-      <c r="M66">
-        <f t="shared" ref="M66:M75" si="71">L66*H66*25</f>
-        <v>-3536.5641210937497</v>
-      </c>
-      <c r="N66">
-        <f t="shared" ref="N66:N75" si="72">K66*D66*(25-I66)</f>
-        <v>-364417.2734375</v>
-      </c>
-      <c r="O66" s="1">
-        <f t="shared" ref="O66:O72" si="73">M66-N66</f>
-        <v>360880.70931640622</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="59"/>
-        <v>4</v>
-      </c>
-      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="60"/>
+        <v>0.1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="61"/>
+        <v>0.33</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f>I66</f>
+        <v>2.37</v>
+      </c>
+      <c r="J67">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C67">
+        <v>-250.82642516581859</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D67">
+        <v>-135.64437993235725</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="67"/>
+        <v>-3391.1094983089315</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N66:N75" si="69">K67*D67*(25-I67)</f>
+        <v>-567620.20015024743</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="68"/>
+        <v>564229.09065193846</v>
+      </c>
+      <c r="P67" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="63"/>
+        <v>500</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="64"/>
+        <v>0.05</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E67">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F67">
+        <v>0.33</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I67:I75" si="70">I67</f>
+        <v>2.37</v>
+      </c>
+      <c r="J68">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="65"/>
+        <v>-292.44790481451793</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="66"/>
+        <v>-131.1712487797659</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="67"/>
+        <v>-3279.2812194941475</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="69"/>
+        <v>-661809.60859525402</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="68"/>
+        <v>658530.32737575984</v>
+      </c>
+      <c r="P68" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H67">
+        <v>500</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I67">
+        <v>0.05</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="60"/>
+        <v>0.1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="61"/>
+        <v>0.33</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="70"/>
+        <v>2.37</v>
+      </c>
+      <c r="J69">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="65"/>
+        <v>-330.20218921155259</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="66"/>
+        <v>-126.84562762588044</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J67">
+        <v>-3171.1406906470111</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="69"/>
+        <v>-747247.55418574356</v>
+      </c>
+      <c r="O69" s="1">
         <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K67">
+        <v>744076.41349509649</v>
+      </c>
+      <c r="P69" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="63"/>
+        <v>500</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="64"/>
+        <v>0.05</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="60"/>
+        <v>0.1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="61"/>
+        <v>0.33</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="70"/>
+        <v>2.37</v>
+      </c>
+      <c r="J70">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="65"/>
+        <v>-364.34153886198902</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="66"/>
+        <v>-122.66265204822454</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="67"/>
+        <v>-3066.5663012056134</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="69"/>
-        <v>-199.92379126953125</v>
-      </c>
-      <c r="L67">
+        <v>-824504.90244468115</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="68"/>
+        <v>821438.33614347549</v>
+      </c>
+      <c r="P70" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="63"/>
+        <v>500</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="64"/>
+        <v>0.05</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="60"/>
+        <v>0.1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="61"/>
+        <v>0.33</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="70"/>
-        <v>-137.3778332838867</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="71"/>
-        <v>-3434.4458320971676</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="72"/>
-        <v>-429836.15122949216</v>
-      </c>
-      <c r="O67" s="1">
-        <f t="shared" si="73"/>
-        <v>426401.70539739501</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+        <v>2.37</v>
+      </c>
+      <c r="J71">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="65"/>
+        <v>-395.10365888174562</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="66"/>
+        <v>-118.61761803789545</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="67"/>
+        <v>-2965.4404509473861</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="69"/>
+        <v>-894119.58004939032</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="68"/>
+        <v>891154.13959844294</v>
+      </c>
+      <c r="P71" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="63"/>
+        <v>500</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="64"/>
+        <v>0.05</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="59"/>
-        <v>5</v>
-      </c>
-      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="60"/>
+        <v>0.1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="61"/>
+        <v>0.33</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="70"/>
+        <v>2.37</v>
+      </c>
+      <c r="J72">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C68">
+        <v>-422.71249082018994</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D68">
+        <v>-114.70597670962158</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="67"/>
+        <v>-2867.6494177405393</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="69"/>
+        <v>-956598.36672608973</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="68"/>
+        <v>953730.71730834921</v>
+      </c>
+      <c r="P72" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="63"/>
+        <v>500</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="64"/>
+        <v>0.05</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E68">
+        <v>0.1</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F68">
+        <v>0.33</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="70"/>
+        <v>2.37</v>
+      </c>
+      <c r="J73">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="65"/>
+        <v>-447.37896277933231</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="66"/>
+        <v>-110.92332918626606</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K68">
+        <v>-2773.0832296566514</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="69"/>
-        <v>-227.70650585912352</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="70"/>
-        <v>-133.41104834781447</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="71"/>
-        <v>-3335.2762086953617</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="72"/>
-        <v>-489568.98759711563</v>
-      </c>
-      <c r="O68" s="1">
-        <f t="shared" si="73"/>
-        <v>486233.71138842026</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <f t="shared" si="59"/>
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="69"/>
-        <v>-253.00921886181629</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="70"/>
-        <v>-129.55880432677134</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="71"/>
-        <v>-3238.9701081692833</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="72"/>
-        <v>-543969.82055290509</v>
-      </c>
-      <c r="O69" s="1">
-        <f t="shared" si="73"/>
-        <v>540730.85044473584</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <f t="shared" si="59"/>
-        <v>7</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="69"/>
-        <v>-275.98742910858761</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="70"/>
-        <v>-125.81779385183582</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="71"/>
-        <v>-3145.4448462958953</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="72"/>
-        <v>-593372.9725834633</v>
-      </c>
-      <c r="O70" s="1">
-        <f t="shared" si="73"/>
-        <v>590227.52773716743</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <f t="shared" si="59"/>
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="69"/>
-        <v>-296.78795096241311</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="70"/>
-        <v>-122.18480505436406</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="71"/>
-        <v>-3054.6201263591015</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="72"/>
-        <v>-638094.09456918819</v>
-      </c>
-      <c r="O71" s="1">
-        <f t="shared" si="73"/>
-        <v>635039.47444282915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <f t="shared" si="59"/>
-        <v>9</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="69"/>
-        <v>-315.54937480424258</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="70"/>
-        <v>-118.6567188084193</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="71"/>
-        <v>-2966.4179702104825</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="72"/>
-        <v>-678431.15582912159</v>
-      </c>
-      <c r="O72" s="1">
-        <f t="shared" si="73"/>
-        <v>675464.73785891116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <f t="shared" si="59"/>
-        <v>10</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="69"/>
-        <v>-332.40250373634575</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="70"/>
-        <v>-115.2305060528262</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="71"/>
-        <v>-2880.7626513206551</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="72"/>
-        <v>-714665.38303314336</v>
+        <v>-1012418.592769629</v>
       </c>
       <c r="O73" s="1">
         <f>M73-N73</f>
-        <v>711784.62038182269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1009645.5095399723</v>
+      </c>
+      <c r="P73" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="63"/>
+        <v>500</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="64"/>
+        <v>0.05</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="59"/>
-        <v>11</v>
-      </c>
-      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="60"/>
+        <v>0.1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="61"/>
+        <v>0.33</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="70"/>
+        <v>2.37</v>
+      </c>
+      <c r="J74">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C74">
+        <v>-469.30169998444171</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I74">
+        <v>-107.26542165202349</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K74">
+        <v>-2681.6355413005872</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="69"/>
-        <v>-347.47076771405568</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="70"/>
-        <v>-111.90322519055084</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="71"/>
-        <v>-2797.580629763771</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="72"/>
-        <v>-747062.15058521973</v>
+        <v>-1062029.7470647916</v>
       </c>
       <c r="O74" s="1">
         <f>M74-N74</f>
-        <v>744264.56995545595</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1059348.1115234911</v>
+      </c>
+      <c r="P74" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="63"/>
+        <v>500</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="64"/>
+        <v>0.05</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="59"/>
-        <v>12</v>
-      </c>
-      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="60"/>
+        <v>0.1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="61"/>
+        <v>0.33</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="70"/>
+        <v>2.37</v>
+      </c>
+      <c r="J75">
+        <f>0.93+((Table5[[#This Row],[Lyft''s Take per Ride]]-3)*(-0.33/3))</f>
+        <v>0.99930000000000008</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="65"/>
-        <v>500</v>
-      </c>
-      <c r="C75">
+        <v>-488.66769785087263</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="60"/>
-        <v>100</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="63"/>
-        <v>0.33</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="I75">
+        <v>-103.72814056874688</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="67"/>
-        <v>3.5</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="68"/>
-        <v>0.875</v>
-      </c>
-      <c r="K75">
+        <v>-2593.2035142186719</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="69"/>
-        <v>-360.87061625575438</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="70"/>
-        <v>-108.67201956317369</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="71"/>
-        <v>-2716.8004890793422</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="72"/>
-        <v>-775871.82494987187</v>
+        <v>-1105855.0002365247</v>
       </c>
       <c r="O75" s="1">
         <f>M75-N75</f>
-        <v>773155.02446079254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1103261.7967223062</v>
+      </c>
+      <c r="P75" s="1">
+        <f>SUM(Table5[Net Revenue])</f>
+        <v>8612882.3725231737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C78" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I19:I29 I34:J44 I49:J57 H64:J64 I65:J75 B18:O18 B33:O33 C48:O48 B64:C64 F64" calculatedColumn="1"/>
+    <ignoredError sqref="I19:I29 I35:I44 I51:I57 H64:I64 I66:I75 B18:O18 B33:I33 C48:I48 B64:C64 F64 K48:O48 I34 K33:O33" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
